--- a/lcad-evaluation/assets/data/LCA/Design B/Impact Assessment B - GWP.XLSX
+++ b/lcad-evaluation/assets/data/LCA/Design B/Impact Assessment B - GWP.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet5" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -51,9 +51,6 @@
     <t>Sort order: </t>
   </si>
   <si>
-    <t>Induction Hardening Bearing Surface 1</t>
-  </si>
-  <si>
     <t>Analyze</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Turning Chamfer 6</t>
+  </si>
+  <si>
+    <t>Induction Hardening Bearing Surfaces 1, 2</t>
   </si>
   <si>
     <t>Total</t>
@@ -518,24 +518,24 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2">
-        <v>0.581746840277778</v>
+        <v>0.806519050925926</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -546,15 +546,15 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -562,7 +562,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -583,7 +583,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -677,13 +677,13 @@
         <v>34</v>
       </c>
       <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" t="s">
         <v>25</v>
-      </c>
-      <c r="T16" t="s">
-        <v>15</v>
-      </c>
-      <c r="U16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -694,7 +694,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>213.342033506948</v>
+        <v>174.399516254188</v>
       </c>
       <c r="D17">
         <v>63.9589530731124</v>
@@ -748,7 +748,7 @@
         <v>0.00602445398071517</v>
       </c>
       <c r="U17">
-        <v>73.0172198489251</v>
+        <v>34.074702596165</v>
       </c>
     </row>
   </sheetData>

--- a/lcad-evaluation/assets/data/LCA/Design B/Impact Assessment B - GWP.XLSX
+++ b/lcad-evaluation/assets/data/LCA/Design B/Impact Assessment B - GWP.XLSX
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="XLSReadWriteII" lastEdited="4" lowestEdited="4" rupBuild="4.00.38"/>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -12,28 +12,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
-    <t>Turning Fillets 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</t>
-  </si>
-  <si>
     <t>With factor = 0</t>
   </si>
   <si>
-    <t>Turning Surface 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 7</t>
-  </si>
-  <si>
-    <t>Turning Top Hole</t>
-  </si>
-  <si>
-    <t>Turning Groove 2</t>
+    <t>Turning 11</t>
+  </si>
+  <si>
+    <t>Milling</t>
   </si>
   <si>
     <t>SimaPro 8.5.2.0</t>
   </si>
   <si>
-    <t>Turning Surface 4, Face 4, Bearing Surface 1</t>
+    <t>Turning 13b</t>
   </si>
   <si>
     <t>No</t>
@@ -45,6 +36,9 @@
     <t>Exclude infrastructure processes: </t>
   </si>
   <si>
+    <t>Turning 4</t>
+  </si>
+  <si>
     <t>Impact category</t>
   </si>
   <si>
@@ -54,12 +48,18 @@
     <t>Analyze</t>
   </si>
   <si>
-    <t>Grinding Bearing Surfaces 1, 2</t>
+    <t>Turning 8</t>
+  </si>
+  <si>
+    <t>Turning 6</t>
   </si>
   <si>
     <t>1 p Screw Pump Shaft - Design B (of project Screw Pump Shaft)</t>
   </si>
   <si>
+    <t>Turning 2</t>
+  </si>
+  <si>
     <t>Results: </t>
   </si>
   <si>
@@ -69,6 +69,9 @@
     <t>Project</t>
   </si>
   <si>
+    <t>Turning 10</t>
+  </si>
+  <si>
     <t>Primary Production Steel Billet</t>
   </si>
   <si>
@@ -78,16 +81,13 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Turning Groove 1</t>
-  </si>
-  <si>
-    <t>Turning Surface 2, Face 2</t>
-  </si>
-  <si>
-    <t>Turning Chamfer 6</t>
-  </si>
-  <si>
-    <t>Induction Hardening Bearing Surfaces 1, 2</t>
+    <t>Induction Hardening</t>
+  </si>
+  <si>
+    <t>Turning 14</t>
+  </si>
+  <si>
+    <t>Drilling</t>
   </si>
   <si>
     <t>Total</t>
@@ -96,16 +96,13 @@
     <t>Method: </t>
   </si>
   <si>
-    <t>Turning Surface 6</t>
-  </si>
-  <si>
     <t>Exclude long-term emissions: </t>
   </si>
   <si>
     <t>Sorted on item: </t>
   </si>
   <si>
-    <t>Turning Surface 5, Face 5, Bearing Surface 2</t>
+    <t>Turning 1</t>
   </si>
   <si>
     <t>ReCiPe 2016 Midpoint (H) V1.00</t>
@@ -114,12 +111,6 @@
     <t>kg CO2 eq</t>
   </si>
   <si>
-    <t>Milling Keyway</t>
-  </si>
-  <si>
-    <t>Turning Face 3</t>
-  </si>
-  <si>
     <t>Indicator: </t>
   </si>
   <si>
@@ -132,22 +123,31 @@
     <t>Characterization</t>
   </si>
   <si>
+    <t>Surface Grinding</t>
+  </si>
+  <si>
+    <t>Turning 5</t>
+  </si>
+  <si>
     <t>Product: </t>
   </si>
   <si>
     <t>Calculation: </t>
   </si>
   <si>
+    <t>Turning 3</t>
+  </si>
+  <si>
     <t>Screw Pump Shaft</t>
   </si>
   <si>
-    <t>Drilling Bushing Holes</t>
-  </si>
-  <si>
     <t>Ascending</t>
   </si>
   <si>
-    <t>Turning Face 1</t>
+    <t>Turning 7</t>
+  </si>
+  <si>
+    <t>Turning 9</t>
   </si>
 </sst>
 </file>
@@ -515,22 +515,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1">
-        <v>45572</v>
+        <v>45574</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2">
-        <v>0.806519050925926</v>
+        <v>0.882288229166667</v>
       </c>
     </row>
     <row r="2">
@@ -543,10 +543,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -570,128 +570,128 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s">
         <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" t="s">
-        <v>34</v>
       </c>
       <c r="S16" t="s">
         <v>24</v>
       </c>
       <c r="T16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>174.399516254188</v>
